--- a/Pinout.xlsx
+++ b/Pinout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17780"/>
+    <workbookView windowWidth="21000" windowHeight="17180"/>
   </bookViews>
   <sheets>
     <sheet name="Pinout" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="500">
   <si>
     <t>Pin</t>
   </si>
@@ -1306,9 +1306,6 @@
     <t>E10</t>
   </si>
   <si>
-    <t>ALT8</t>
-  </si>
-  <si>
     <t>FB_A23</t>
   </si>
   <si>
@@ -1321,9 +1318,6 @@
     <t>A9</t>
   </si>
   <si>
-    <t>ALT9</t>
-  </si>
-  <si>
     <t>FB_A22</t>
   </si>
   <si>
@@ -1336,9 +1330,6 @@
     <t>E8</t>
   </si>
   <si>
-    <t>ALT10</t>
-  </si>
-  <si>
     <t>LPi2C2_SDA</t>
   </si>
   <si>
@@ -1352,9 +1343,6 @@
   </si>
   <si>
     <t>A7</t>
-  </si>
-  <si>
-    <t>ALT11</t>
   </si>
   <si>
     <t>FB_AD22</t>
@@ -1533,19 +1521,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1561,8 +1542,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1577,7 +1574,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1592,15 +1589,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1638,29 +1627,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1684,7 +1658,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1699,19 +1680,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1723,7 +1728,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1735,7 +1776,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1747,7 +1800,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,25 +1842,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1795,91 +1860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1890,15 +1871,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1913,6 +1885,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1937,21 +1929,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1983,19 +1960,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2004,148 +1985,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2477,8 +2458,8 @@
   <sheetPr/>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="L102" sqref="L102"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5833333333333" defaultRowHeight="28.05" customHeight="1"/>
@@ -5537,7 +5518,7 @@
         <v>429</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>430</v>
+        <v>11</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>21</v>
@@ -5555,33 +5536,33 @@
         <v>21</v>
       </c>
       <c r="J81" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:12">
       <c r="A82" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="D82" s="1" t="s">
-        <v>435</v>
+        <v>11</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>183</v>
@@ -5593,71 +5574,71 @@
         <v>21</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:12">
       <c r="A83" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="H83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>185</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>446</v>
+        <v>11</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>166</v>
@@ -5669,24 +5650,24 @@
         <v>21</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>34</v>
@@ -5695,7 +5676,7 @@
         <v>21</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>149</v>
@@ -5707,7 +5688,7 @@
         <v>261</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>21</v>
@@ -5718,13 +5699,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>34</v>
@@ -5733,7 +5714,7 @@
         <v>21</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>266</v>
@@ -5745,7 +5726,7 @@
         <v>267</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>21</v>
@@ -5756,13 +5737,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>34</v>
@@ -5771,7 +5752,7 @@
         <v>21</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>273</v>
@@ -5783,7 +5764,7 @@
         <v>274</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>283</v>
@@ -5794,13 +5775,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>34</v>
@@ -5809,7 +5790,7 @@
         <v>21</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>280</v>
@@ -5821,7 +5802,7 @@
         <v>281</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>292</v>
@@ -5832,13 +5813,13 @@
     </row>
     <row r="89" customHeight="1" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>34</v>
@@ -5847,7 +5828,7 @@
         <v>21</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>289</v>
@@ -5859,7 +5840,7 @@
         <v>290</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>301</v>
@@ -5870,13 +5851,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>34</v>
@@ -5885,7 +5866,7 @@
         <v>21</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>299</v>
@@ -5897,7 +5878,7 @@
         <v>149</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>309</v>
@@ -5908,13 +5889,13 @@
     </row>
     <row r="91" customHeight="1" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>34</v>
@@ -5923,7 +5904,7 @@
         <v>21</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>307</v>
@@ -5935,7 +5916,7 @@
         <v>158</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>318</v>
@@ -5946,13 +5927,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>34</v>
@@ -5961,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>316</v>
@@ -5973,7 +5954,7 @@
         <v>166</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>326</v>
@@ -5984,13 +5965,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>34</v>
@@ -5999,7 +5980,7 @@
         <v>21</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>243</v>
@@ -6011,7 +5992,7 @@
         <v>175</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>21</v>
@@ -6022,13 +6003,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>34</v>
@@ -6037,7 +6018,7 @@
         <v>21</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>17</v>
@@ -6049,7 +6030,7 @@
         <v>183</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>21</v>
@@ -6060,13 +6041,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>34</v>
@@ -6075,7 +6056,7 @@
         <v>21</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>28</v>
@@ -6087,7 +6068,7 @@
         <v>21</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>21</v>
@@ -6098,13 +6079,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>34</v>
@@ -6113,7 +6094,7 @@
         <v>21</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>37</v>
@@ -6125,7 +6106,7 @@
         <v>21</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>21</v>
@@ -6136,13 +6117,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>34</v>
@@ -6151,7 +6132,7 @@
         <v>21</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>94</v>
@@ -6163,24 +6144,24 @@
         <v>21</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>144</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>34</v>
@@ -6189,7 +6170,7 @@
         <v>21</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>101</v>
@@ -6201,7 +6182,7 @@
         <v>21</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>151</v>
@@ -6212,13 +6193,13 @@
     </row>
     <row r="99" customHeight="1" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>34</v>
@@ -6227,7 +6208,7 @@
         <v>21</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>87</v>
@@ -6250,13 +6231,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>34</v>
@@ -6265,7 +6246,7 @@
         <v>21</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>81</v>
@@ -6277,7 +6258,7 @@
         <v>396</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>21</v>
@@ -6288,10 +6269,10 @@
     </row>
     <row r="101" customHeight="1" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>408</v>
@@ -6303,7 +6284,7 @@
         <v>21</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>74</v>
@@ -6315,7 +6296,7 @@
         <v>191</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>215</v>
